--- a/models.xlsx
+++ b/models.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
   <si>
     <t>freq</t>
   </si>
@@ -151,6 +151,33 @@
   </si>
   <si>
     <t>0.6137/0.4514</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>0.7054/0.4058</t>
+  </si>
+  <si>
+    <t>0.7055/0.4032</t>
+  </si>
+  <si>
+    <t>0.4908/0.4446</t>
+  </si>
+  <si>
+    <t>0.4865/0.4259</t>
+  </si>
+  <si>
+    <t>0.7333/0.4498</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7316/0.4242</t>
+  </si>
+  <si>
+    <t>0.5227/0.4743</t>
+  </si>
+  <si>
+    <t>0.5178/0.4511</t>
   </si>
 </sst>
 </file>
@@ -474,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:T22"/>
+  <dimension ref="B3:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +520,7 @@
     <col min="9" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -926,7 +953,7 @@
         <v>15</v>
       </c>
       <c r="M16" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
@@ -1139,6 +1166,455 @@
       </c>
       <c r="T22" s="1">
         <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>50</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>200</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="1">
+        <v>10</v>
+      </c>
+      <c r="K24" s="1">
+        <v>8</v>
+      </c>
+      <c r="N24" s="1">
+        <v>662408</v>
+      </c>
+      <c r="O24" s="1">
+        <v>207014</v>
+      </c>
+      <c r="P24" s="1">
+        <v>199976</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.51352660000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <v>50</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>200</v>
+      </c>
+      <c r="J25" s="1">
+        <v>10</v>
+      </c>
+      <c r="K25" s="1">
+        <v>8</v>
+      </c>
+      <c r="N25" s="1">
+        <v>662408</v>
+      </c>
+      <c r="O25" s="1">
+        <v>207014</v>
+      </c>
+      <c r="P25" s="1">
+        <v>199976</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.54698559999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <v>50</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H26" s="1">
+        <v>200</v>
+      </c>
+      <c r="J26" s="1">
+        <v>10</v>
+      </c>
+      <c r="K26" s="1">
+        <v>8</v>
+      </c>
+      <c r="N26" s="1">
+        <v>662408</v>
+      </c>
+      <c r="O26" s="1">
+        <v>207014</v>
+      </c>
+      <c r="P26" s="1">
+        <v>199976</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
+        <v>50</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>200</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10</v>
+      </c>
+      <c r="K30" s="1">
+        <v>8</v>
+      </c>
+      <c r="N30" s="1">
+        <v>579594</v>
+      </c>
+      <c r="O30" s="1">
+        <v>181125</v>
+      </c>
+      <c r="P30" s="1">
+        <v>174966</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0.4715259</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <v>50</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>200</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="1">
+        <v>10</v>
+      </c>
+      <c r="K31" s="1">
+        <v>8</v>
+      </c>
+      <c r="N31" s="1">
+        <v>579594</v>
+      </c>
+      <c r="O31" s="1">
+        <v>181125</v>
+      </c>
+      <c r="P31" s="1">
+        <v>174966</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0.51782059999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H32" s="1">
+        <v>200</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="1">
+        <v>10</v>
+      </c>
+      <c r="K32" s="1">
+        <v>8</v>
+      </c>
+      <c r="N32" s="1">
+        <v>579594</v>
+      </c>
+      <c r="O32" s="1">
+        <v>181125</v>
+      </c>
+      <c r="P32" s="1">
+        <v>174966</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1">
+        <v>50</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="H36" s="1">
+        <v>200</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="1">
+        <v>10</v>
+      </c>
+      <c r="K36" s="1">
+        <v>8</v>
+      </c>
+      <c r="N36" s="1">
+        <v>662408</v>
+      </c>
+      <c r="O36" s="1">
+        <v>207014</v>
+      </c>
+      <c r="P36" s="1">
+        <v>199976</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0.44905114000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <v>50</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>200</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="1">
+        <v>10</v>
+      </c>
+      <c r="K37" s="1">
+        <v>8</v>
+      </c>
+      <c r="N37" s="1">
+        <v>662408</v>
+      </c>
+      <c r="O37" s="1">
+        <v>207014</v>
+      </c>
+      <c r="P37" s="1">
+        <v>199976</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0.50065755999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <v>50</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H38" s="1">
+        <v>200</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="1">
+        <v>10</v>
+      </c>
+      <c r="K38" s="1">
+        <v>8</v>
+      </c>
+      <c r="N38" s="1">
+        <v>662408</v>
+      </c>
+      <c r="O38" s="1">
+        <v>207014</v>
+      </c>
+      <c r="P38" s="1">
+        <v>199976</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1">
+        <v>50</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>200</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="1">
+        <v>10</v>
+      </c>
+      <c r="K42" s="1">
+        <v>8</v>
+      </c>
+      <c r="N42" s="1">
+        <v>579594</v>
+      </c>
+      <c r="O42" s="1">
+        <v>181125</v>
+      </c>
+      <c r="P42" s="1">
+        <v>174966</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0.44833538000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E43" s="1">
+        <v>50</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>200</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="1">
+        <v>10</v>
+      </c>
+      <c r="K43" s="1">
+        <v>8</v>
+      </c>
+      <c r="N43" s="1">
+        <v>579594</v>
+      </c>
+      <c r="O43" s="1">
+        <v>181125</v>
+      </c>
+      <c r="P43" s="1">
+        <v>174966</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0.48139343000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E44" s="1">
+        <v>50</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H44" s="1">
+        <v>200</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="1">
+        <v>10</v>
+      </c>
+      <c r="K44" s="1">
+        <v>8</v>
+      </c>
+      <c r="N44" s="1">
+        <v>579594</v>
+      </c>
+      <c r="O44" s="1">
+        <v>181125</v>
+      </c>
+      <c r="P44" s="1">
+        <v>174966</v>
       </c>
     </row>
   </sheetData>

--- a/models.xlsx
+++ b/models.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
   <si>
     <t>freq</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>0.5178/0.4511</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4491/0.4719</t>
+  </si>
+  <si>
+    <t>0.4527/0.4942</t>
+  </si>
+  <si>
+    <t>0.4510/0.4548</t>
+  </si>
+  <si>
+    <t>0.4441/0.4308</t>
   </si>
 </sst>
 </file>
@@ -504,7 +516,7 @@
   <dimension ref="B3:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,6 +1287,12 @@
       <c r="P26" s="1">
         <v>199976</v>
       </c>
+      <c r="Q26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.56906330000000005</v>
+      </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D30" s="1">
@@ -1385,6 +1403,12 @@
       </c>
       <c r="P32" s="1">
         <v>174966</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0.54575750000000001</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
@@ -1505,6 +1529,12 @@
       <c r="P38" s="1">
         <v>199976</v>
       </c>
+      <c r="Q38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0.52007499999999995</v>
+      </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D42" s="1">
@@ -1615,6 +1645,12 @@
       </c>
       <c r="P44" s="1">
         <v>174966</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0.49320722</v>
       </c>
     </row>
   </sheetData>
